--- a/projclstrs.xlsx
+++ b/projclstrs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.DEMO\Documents\GitHub\Amgen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.DEMO\Documents\GitHub\ProjA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F5288E4-41E3-4AFF-BD67-0D791F59754B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F08BB5F-7B3F-4C35-93CA-CAD01AE9AE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14160" xr2:uid="{4234BEDA-3E8D-4FA4-B8E9-86B0328B5C23}"/>
   </bookViews>
@@ -34,18 +34,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>site01-prod-env01</t>
+    <t>site01-pfsx-app01</t>
   </si>
   <si>
-    <t>site01-prod-env02</t>
+    <t>site01-sfsx-app02</t>
   </si>
   <si>
-    <t>site02-prod-env01</t>
-  </si>
-  <si>
-    <t>site02-prod-env02</t>
+    <t>site02-pfsx-app01</t>
   </si>
 </sst>
 </file>
@@ -397,11 +394,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81302A02-D83F-4B56-A5DF-218B58A00117}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -423,11 +418,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/projclstrs.xlsx
+++ b/projclstrs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.DEMO\Documents\GitHub\ProjA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netapp-my.sharepoint.com/personal/bmahadev_netapp_com/Documents/Documents/ProjA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F08BB5F-7B3F-4C35-93CA-CAD01AE9AE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A557B72F-9F0E-41B0-BFD4-28BE06E281E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14160" xr2:uid="{4234BEDA-3E8D-4FA4-B8E9-86B0328B5C23}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2282542C-B303-475B-85EE-1A21F58DACAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,22 +35,92 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>site01-pfsx-app01</t>
-  </si>
-  <si>
-    <t>site01-sfsx-app02</t>
-  </si>
-  <si>
-    <t>site02-pfsx-app01</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>prju-pfsx-cf01</t>
+  </si>
+  <si>
+    <t>prju-pfsx-cf02</t>
+  </si>
+  <si>
+    <t>prju-pfsx-cf05</t>
+  </si>
+  <si>
+    <t>prju-pfsx-cf06</t>
+  </si>
+  <si>
+    <t>prju-pfsx-dmz03</t>
+  </si>
+  <si>
+    <t>prju-pfsx-dmz04</t>
+  </si>
+  <si>
+    <t>sgsg-pfsx-dmz01</t>
+  </si>
+  <si>
+    <t>sgsg-pfsx-dmz02</t>
+  </si>
+  <si>
+    <t>sgsg-pfsx-vm01</t>
+  </si>
+  <si>
+    <t>sgsg-pfsx-vm02</t>
+  </si>
+  <si>
+    <t>uslv-pfsx-bkp1</t>
+  </si>
+  <si>
+    <t>uslv-pfsx-cf01</t>
+  </si>
+  <si>
+    <t>uslv-pfsx-cf03</t>
+  </si>
+  <si>
+    <t>uslv-pfsx-cf07</t>
+  </si>
+  <si>
+    <t>uslv-pfsx-erp01</t>
+  </si>
+  <si>
+    <t>uslv-pfsx-vm03</t>
+  </si>
+  <si>
+    <t>uslv-sfsx-cf08</t>
+  </si>
+  <si>
+    <t>uslv-sfsx-dmz10</t>
+  </si>
+  <si>
+    <t>uslv-sfsx-dmz11</t>
+  </si>
+  <si>
+    <t>usri-pfsx-bkp5</t>
+  </si>
+  <si>
+    <t>usri-pfsx-cf03</t>
+  </si>
+  <si>
+    <t>usri-pfsx-cf04</t>
+  </si>
+  <si>
+    <t>usri-pfsx-dmz05</t>
+  </si>
+  <si>
+    <t>usri-pfsx-dmz06</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,8 +149,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,29 +467,136 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81302A02-D83F-4B56-A5DF-218B58A00117}">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F2E370-9CC7-47B2-84D7-C2F7580BD937}">
+  <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/projclstrs.xlsx
+++ b/projclstrs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netapp-my.sharepoint.com/personal/bmahadev_netapp_com/Documents/Documents/ProjA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A557B72F-9F0E-41B0-BFD4-28BE06E281E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{A557B72F-9F0E-41B0-BFD4-28BE06E281E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3678DE6E-32B1-4D4C-940A-D2E1FAC09BD9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2282542C-B303-475B-85EE-1A21F58DACAE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>prju-pfsx-cf01</t>
   </si>
@@ -107,6 +107,15 @@
   </si>
   <si>
     <t>usri-pfsx-dmz06</t>
+  </si>
+  <si>
+    <t>site01-pfsx-app01</t>
+  </si>
+  <si>
+    <t>site01-sfsx-app02</t>
+  </si>
+  <si>
+    <t>site02-pfsx-app01</t>
   </si>
 </sst>
 </file>
@@ -468,15 +477,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F2E370-9CC7-47B2-84D7-C2F7580BD937}">
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -599,6 +608,21 @@
         <v>23</v>
       </c>
     </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
